--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Amputación extremidades inferiores.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Amputación extremidades inferiores.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.38932397436745</v>
+        <v>29.38932397436746</v>
       </c>
       <c r="B6" t="n">
         <v>24.60527690111872</v>
@@ -565,7 +565,7 @@
         <v>32.44766096070757</v>
       </c>
       <c r="B12" t="n">
-        <v>27.77788126134063</v>
+        <v>27.77788126134062</v>
       </c>
       <c r="C12" t="n">
         <v>37.20112355511643</v>
@@ -642,7 +642,7 @@
         <v>30.5947404290338</v>
       </c>
       <c r="B19" t="n">
-        <v>26.81955574110675</v>
+        <v>26.81955574110674</v>
       </c>
       <c r="C19" t="n">
         <v>34.47981269817014</v>
@@ -675,7 +675,7 @@
         <v>21.8720777372164</v>
       </c>
       <c r="B22" t="n">
-        <v>19.99578133422551</v>
+        <v>19.9957813342255</v>
       </c>
       <c r="C22" t="n">
         <v>23.89042219105571</v>
@@ -851,7 +851,7 @@
         <v>29.6230615179186</v>
       </c>
       <c r="B38" t="n">
-        <v>26.218573575686</v>
+        <v>26.21857357568599</v>
       </c>
       <c r="C38" t="n">
         <v>33.10918790049296</v>
@@ -961,7 +961,7 @@
         <v>32.42505163806841</v>
       </c>
       <c r="B48" t="n">
-        <v>27.71697155868873</v>
+        <v>27.71697155868872</v>
       </c>
       <c r="C48" t="n">
         <v>37.19613887051442</v>
@@ -1016,7 +1016,7 @@
         <v>34.38353628019816</v>
       </c>
       <c r="B53" t="n">
-        <v>29.4514905648803</v>
+        <v>29.45149056488029</v>
       </c>
       <c r="C53" t="n">
         <v>39.36029559314406</v>
@@ -1126,7 +1126,7 @@
         <v>31.63806946664625</v>
       </c>
       <c r="B63" t="n">
-        <v>28.10536683850733</v>
+        <v>28.10536683850732</v>
       </c>
       <c r="C63" t="n">
         <v>35.28580633462765</v>
